--- a/Data Files/Test_Data.xlsx
+++ b/Data Files/Test_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahir\Katalon Studio\MyHours\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahir\Katalon Studio\MyHours_Assignment\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>test12345</t>
+  </si>
+  <si>
+    <t>https://app.myhours.com/#/signin</t>
+  </si>
+  <si>
+    <t>applicationUrl</t>
   </si>
 </sst>
 </file>
@@ -364,31 +370,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Test_Data.xlsx
+++ b/Data Files/Test_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>userName</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>applicationUrl</t>
+  </si>
+  <si>
+    <t>test1234</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,9 +401,20 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data Files/Test_Data.xlsx
+++ b/Data Files/Test_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>userName</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>test1234</t>
+  </si>
+  <si>
+    <t>loginMessage</t>
+  </si>
+  <si>
+    <t>Email or Password is wrong</t>
   </si>
 </sst>
 </file>
@@ -373,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,7 +391,7 @@
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +401,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -406,8 +415,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>

--- a/Data Files/Test_Data.xlsx
+++ b/Data Files/Test_Data.xlsx
@@ -50,7 +50,7 @@
     <t>loginMessage</t>
   </si>
   <si>
-    <t>Email or Password is wrong</t>
+    <t xml:space="preserve">          There was a problem with authenticating: Invalid username or password..                            </t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Files/Test_Data.xlsx
+++ b/Data Files/Test_Data.xlsx
@@ -50,7 +50,7 @@
     <t>loginMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">          There was a problem with authenticating: Invalid username or password..                            </t>
+    <t>wrong_password</t>
   </si>
 </sst>
 </file>
